--- a/regalos_concesionarios.xlsx
+++ b/regalos_concesionarios.xlsx
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
+  <si>
+    <t>COD_INSTALACION</t>
+  </si>
+  <si>
+    <t>CONCESIONARIO</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>OBJETIVO_AO</t>
+  </si>
+  <si>
+    <t>OBJETIVO_AOA</t>
+  </si>
+  <si>
+    <t>EMAIL_CC</t>
+  </si>
+  <si>
+    <t>EMAIL_REMITENTE</t>
+  </si>
   <si>
     <t>03250; 52M50; 52M02; 52M60; 52V00</t>
   </si>
@@ -1401,12 +1422,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="00DCDCDC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1421,8 +1447,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -1720,7 +1747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1729,7 +1756,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1771,823 +1798,823 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
         <v>144</v>
       </c>
-      <c r="D34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
       <c r="G34" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="G36" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" t="n">
-        <v>120</v>
-      </c>
-      <c r="E37" t="n">
-        <v>18000</v>
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D38" t="n">
         <v>120</v>
@@ -2596,21 +2623,21 @@
         <v>18000</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D39" t="n">
         <v>120</v>
@@ -2619,21 +2646,21 @@
         <v>18000</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G39" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D40" t="n">
         <v>120</v>
@@ -2642,67 +2669,67 @@
         <v>18000</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D41" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="E41" t="n">
         <v>18000</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D42" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="E42" t="n">
         <v>18000</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G42" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D43" t="n">
         <v>120</v>
@@ -2711,21 +2738,21 @@
         <v>18000</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D44" t="n">
         <v>120</v>
@@ -2734,67 +2761,67 @@
         <v>18000</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="n">
+        <v>120</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F45" t="s">
         <v>182</v>
       </c>
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" t="n">
-        <v>190</v>
-      </c>
-      <c r="E45" t="n">
-        <v>32000</v>
-      </c>
-      <c r="F45" t="s">
-        <v>30</v>
-      </c>
       <c r="G45" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D46" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E46" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D47" t="n">
         <v>120</v>
@@ -2803,136 +2830,136 @@
         <v>18000</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D48" t="n">
         <v>120</v>
       </c>
       <c r="E48" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D49" t="n">
         <v>120</v>
       </c>
       <c r="E49" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D50" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="E50" t="n">
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="G50" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D51" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="E51" t="n">
-        <v>56000</v>
+        <v>54000</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D52" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="E52" t="n">
-        <v>18000</v>
+        <v>56000</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D53" t="n">
         <v>120</v>
@@ -2941,21 +2968,21 @@
         <v>18000</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D54" t="n">
         <v>120</v>
@@ -2964,21 +2991,21 @@
         <v>18000</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D55" t="n">
         <v>120</v>
@@ -2987,21 +3014,21 @@
         <v>18000</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="G55" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D56" t="n">
         <v>120</v>
@@ -3010,205 +3037,205 @@
         <v>18000</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D57" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E57" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G57" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D58" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E58" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D59" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E59" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D60" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E60" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D61" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="E61" t="n">
-        <v>53000</v>
+        <v>37000</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="D62" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E62" t="n">
-        <v>22000</v>
+        <v>53000</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B63" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="D63" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E63" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D64" t="n">
         <v>120</v>
       </c>
       <c r="E64" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D65" t="n">
         <v>120</v>
@@ -3217,21 +3244,21 @@
         <v>18000</v>
       </c>
       <c r="F65" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D66" t="n">
         <v>120</v>
@@ -3240,21 +3267,21 @@
         <v>18000</v>
       </c>
       <c r="F66" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="G66" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D67" t="n">
         <v>120</v>
@@ -3263,21 +3290,21 @@
         <v>18000</v>
       </c>
       <c r="F67" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="G67" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D68" t="n">
         <v>120</v>
@@ -3286,21 +3313,21 @@
         <v>18000</v>
       </c>
       <c r="F68" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="G68" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D69" t="n">
         <v>120</v>
@@ -3309,21 +3336,21 @@
         <v>18000</v>
       </c>
       <c r="F69" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="G69" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D70" t="n">
         <v>120</v>
@@ -3332,44 +3359,44 @@
         <v>18000</v>
       </c>
       <c r="F70" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" t="n">
+        <v>120</v>
+      </c>
+      <c r="E71" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F71" t="s">
         <v>262</v>
       </c>
-      <c r="B71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" t="n">
-        <v>120</v>
-      </c>
-      <c r="E71" t="n">
-        <v>18000</v>
-      </c>
-      <c r="F71" t="s">
-        <v>265</v>
-      </c>
       <c r="G71" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="C72" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D72" t="n">
         <v>120</v>
@@ -3378,90 +3405,90 @@
         <v>18000</v>
       </c>
       <c r="F72" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D73" t="n">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="E73" t="n">
-        <v>65000</v>
+        <v>18000</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D74" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="E74" t="n">
-        <v>18000</v>
+        <v>65000</v>
       </c>
       <c r="F74" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C75" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D75" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E75" t="n">
         <v>18000</v>
       </c>
       <c r="F75" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C76" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D76" t="n">
         <v>120</v>
@@ -3470,21 +3497,21 @@
         <v>18000</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="G76" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D77" t="n">
         <v>120</v>
@@ -3493,21 +3520,21 @@
         <v>18000</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C78" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D78" t="n">
         <v>120</v>
@@ -3516,21 +3543,21 @@
         <v>18000</v>
       </c>
       <c r="F78" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D79" t="n">
         <v>120</v>
@@ -3539,21 +3566,21 @@
         <v>18000</v>
       </c>
       <c r="F79" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="G79" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D80" t="n">
         <v>120</v>
@@ -3562,21 +3589,21 @@
         <v>18000</v>
       </c>
       <c r="F80" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="G80" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C81" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D81" t="n">
         <v>120</v>
@@ -3585,21 +3612,21 @@
         <v>18000</v>
       </c>
       <c r="F81" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D82" t="n">
         <v>120</v>
@@ -3608,228 +3635,228 @@
         <v>18000</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="G82" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C83" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D83" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E83" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C84" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D84" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E84" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D85" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E85" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D86" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="E86" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C87" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D87" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="E87" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C88" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D88" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="E88" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="F88" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D89" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="E89" t="n">
         <v>18000</v>
       </c>
       <c r="F89" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G89" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C90" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D90" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="E90" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="G90" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C91" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D91" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="E91" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C92" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D92" t="n">
         <v>120</v>
@@ -3838,67 +3865,67 @@
         <v>18000</v>
       </c>
       <c r="F92" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B93" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C93" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D93" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="E93" t="n">
-        <v>49000</v>
+        <v>18000</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="G93" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D94" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="E94" t="n">
-        <v>18000</v>
+        <v>49000</v>
       </c>
       <c r="F94" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="G94" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B95" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C95" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D95" t="n">
         <v>120</v>
@@ -3907,21 +3934,21 @@
         <v>18000</v>
       </c>
       <c r="F95" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="G95" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C96" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D96" t="n">
         <v>120</v>
@@ -3930,67 +3957,67 @@
         <v>18000</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B97" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C97" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D97" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E97" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="G97" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C98" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D98" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E98" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C99" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D99" t="n">
         <v>120</v>
@@ -3999,67 +4026,67 @@
         <v>18000</v>
       </c>
       <c r="F99" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B100" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C100" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D100" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E100" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="G100" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B101" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C101" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D101" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E101" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="F101" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="G101" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B102" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C102" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D102" t="n">
         <v>120</v>
@@ -4068,21 +4095,21 @@
         <v>18000</v>
       </c>
       <c r="F102" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="G102" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C103" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D103" t="n">
         <v>120</v>
@@ -4091,67 +4118,67 @@
         <v>18000</v>
       </c>
       <c r="F103" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B104" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C104" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D104" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="E104" t="n">
         <v>18000</v>
       </c>
       <c r="F104" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G104" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B105" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C105" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D105" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="E105" t="n">
         <v>18000</v>
       </c>
       <c r="F105" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G105" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C106" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D106" t="n">
         <v>120</v>
@@ -4160,21 +4187,21 @@
         <v>18000</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G106" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B107" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D107" t="n">
         <v>120</v>
@@ -4183,21 +4210,21 @@
         <v>18000</v>
       </c>
       <c r="F107" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="G107" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B108" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C108" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D108" t="n">
         <v>120</v>
@@ -4206,113 +4233,113 @@
         <v>18000</v>
       </c>
       <c r="F108" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="G108" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B109" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D109" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E109" t="n">
-        <v>46000</v>
+        <v>18000</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B110" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C110" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D110" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E110" t="n">
-        <v>18000</v>
+        <v>46000</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B111" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C111" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D111" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E111" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="F111" t="s">
-        <v>384</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B112" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D112" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E112" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="F112" t="s">
-        <v>171</v>
+        <v>391</v>
       </c>
       <c r="G112" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B113" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C113" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D113" t="n">
         <v>120</v>
@@ -4321,21 +4348,21 @@
         <v>18000</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="G113" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B114" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C114" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D114" t="n">
         <v>120</v>
@@ -4344,21 +4371,21 @@
         <v>18000</v>
       </c>
       <c r="F114" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B115" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C115" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D115" t="n">
         <v>120</v>
@@ -4367,67 +4394,67 @@
         <v>18000</v>
       </c>
       <c r="F115" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G115" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B116" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C116" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D116" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E116" t="n">
-        <v>41000</v>
+        <v>18000</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="G116" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B117" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C117" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D117" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E117" t="n">
-        <v>18000</v>
+        <v>41000</v>
       </c>
       <c r="F117" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B118" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C118" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D118" t="n">
         <v>120</v>
@@ -4436,21 +4463,21 @@
         <v>18000</v>
       </c>
       <c r="F118" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G118" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B119" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C119" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D119" t="n">
         <v>120</v>
@@ -4459,21 +4486,21 @@
         <v>18000</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="G119" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B120" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C120" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D120" t="n">
         <v>120</v>
@@ -4482,21 +4509,21 @@
         <v>18000</v>
       </c>
       <c r="F120" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="G120" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B121" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C121" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D121" t="n">
         <v>120</v>
@@ -4505,21 +4532,21 @@
         <v>18000</v>
       </c>
       <c r="F121" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="G121" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B122" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C122" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D122" t="n">
         <v>120</v>
@@ -4528,67 +4555,67 @@
         <v>18000</v>
       </c>
       <c r="F122" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="G122" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B123" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C123" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D123" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E123" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="G123" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B124" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C124" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D124" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E124" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G124" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C125" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D125" t="n">
         <v>120</v>
@@ -4597,67 +4624,67 @@
         <v>18000</v>
       </c>
       <c r="F125" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G125" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B126" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C126" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D126" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E126" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B127" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C127" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D127" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E127" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="G127" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B128" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C128" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D128" t="n">
         <v>120</v>
@@ -4666,67 +4693,67 @@
         <v>18000</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G128" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B129" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C129" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D129" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E129" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G129" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B130" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C130" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D130" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E130" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="F130" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="G130" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B131" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C131" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D131" t="n">
         <v>120</v>
@@ -4735,113 +4762,113 @@
         <v>18000</v>
       </c>
       <c r="F131" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G131" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B132" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C132" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D132" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E132" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="G132" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>453</v>
       </c>
       <c r="C133" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D133" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E133" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="C134" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D134" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E134" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G134" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B135" t="s">
-        <v>437</v>
+        <v>323</v>
       </c>
       <c r="C135" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D135" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E135" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G135" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B136" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D136" t="n">
         <v>120</v>
@@ -4850,10 +4877,33 @@
         <v>18000</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G136" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>461</v>
+      </c>
+      <c r="B137" t="s">
+        <v>462</v>
+      </c>
+      <c r="C137" t="s">
+        <v>463</v>
+      </c>
+      <c r="D137" t="n">
+        <v>120</v>
+      </c>
+      <c r="E137" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F137" t="s">
+        <v>48</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/regalos_concesionarios.xlsx
+++ b/regalos_concesionarios.xlsx
@@ -1431,7 +1431,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <bgColor rgb="00DCDCDC"/>
+        <fgColor rgb="00A9A9A9"/>
+        <bgColor rgb="00A9A9A9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1747,7 +1748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1755,30 +1756,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1962,7 +1971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -2031,7 +2040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2077,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -2284,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -2353,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -2399,7 +2408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>141</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -2537,7 +2546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -2583,7 +2592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -2629,7 +2638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>172</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -2744,7 +2753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -2767,7 +2776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -2790,7 +2799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>189</v>
       </c>
@@ -2813,7 +2822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>192</v>
       </c>
@@ -2836,7 +2845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -2859,7 +2868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -2905,7 +2914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -2928,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>209</v>
       </c>
@@ -2951,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>215</v>
       </c>
@@ -2997,7 +3006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -3020,7 +3029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -3089,7 +3098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>230</v>
       </c>
@@ -3112,7 +3121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>233</v>
       </c>
@@ -3135,7 +3144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>236</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>239</v>
       </c>
@@ -3181,7 +3190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>242</v>
       </c>
@@ -3204,7 +3213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -3250,7 +3259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>249</v>
       </c>
@@ -3273,7 +3282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -3296,7 +3305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>256</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>259</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>263</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>266</v>
       </c>
@@ -3388,7 +3397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>269</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>273</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>275</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -3480,7 +3489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>281</v>
       </c>
@@ -3503,7 +3512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>284</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>287</v>
       </c>
@@ -3549,7 +3558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>290</v>
       </c>
@@ -3572,7 +3581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>293</v>
       </c>
@@ -3595,7 +3604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>296</v>
       </c>
@@ -3618,7 +3627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>299</v>
       </c>
@@ -3641,7 +3650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>302</v>
       </c>
@@ -3664,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>305</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>307</v>
       </c>
@@ -3710,7 +3719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>310</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>313</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>316</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>319</v>
       </c>
@@ -3802,7 +3811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -3825,7 +3834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>325</v>
       </c>
@@ -3848,7 +3857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>328</v>
       </c>
@@ -3871,7 +3880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>331</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>334</v>
       </c>
@@ -3917,7 +3926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>337</v>
       </c>
@@ -3940,7 +3949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>340</v>
       </c>
@@ -3963,7 +3972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>343</v>
       </c>
@@ -3986,7 +3995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>346</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>349</v>
       </c>
@@ -4032,7 +4041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>352</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>355</v>
       </c>
@@ -4078,7 +4087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>358</v>
       </c>
@@ -4101,7 +4110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>361</v>
       </c>
@@ -4124,7 +4133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>364</v>
       </c>
@@ -4147,7 +4156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>367</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>370</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>373</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>376</v>
       </c>
@@ -4239,7 +4248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>379</v>
       </c>
@@ -4262,7 +4271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>382</v>
       </c>
@@ -4285,7 +4294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>385</v>
       </c>
@@ -4308,7 +4317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>388</v>
       </c>
@@ -4331,7 +4340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>392</v>
       </c>
@@ -4354,7 +4363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>395</v>
       </c>
@@ -4377,7 +4386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>398</v>
       </c>
@@ -4400,7 +4409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>401</v>
       </c>
@@ -4423,7 +4432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>404</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>407</v>
       </c>
@@ -4469,7 +4478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>410</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>413</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>416</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
         <v>419</v>
       </c>
@@ -4561,7 +4570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
         <v>422</v>
       </c>
@@ -4584,7 +4593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>425</v>
       </c>
@@ -4607,7 +4616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>428</v>
       </c>
@@ -4630,7 +4639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
         <v>431</v>
       </c>
@@ -4653,7 +4662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
         <v>434</v>
       </c>
@@ -4676,7 +4685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>437</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>440</v>
       </c>
@@ -4722,7 +4731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>443</v>
       </c>
@@ -4745,7 +4754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>446</v>
       </c>
@@ -4768,7 +4777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>449</v>
       </c>
@@ -4791,7 +4800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>452</v>
       </c>
@@ -4814,7 +4823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>455</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>457</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>459</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>461</v>
       </c>
